--- a/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
+++ b/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -385,11 +385,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -430,11 +430,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
@@ -467,9 +467,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -495,14 +493,14 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.37"/>
@@ -635,11 +633,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
@@ -767,11 +765,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.3"/>
   </cols>
@@ -818,11 +816,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>

--- a/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
+++ b/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -192,7 +192,16 @@
     <t xml:space="preserve">Stand just outside the front door of the house and geocode the location.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pare fora da porta principal  da casa e tire as coordenadas geograficas do local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simama mbele tu ya mlango wa kuingia kwenye nyumba na ukusanye vipimo vya GPS vya eneo hilo</t>
+  </si>
+  <si>
     <t xml:space="preserve">The household id is {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHID: {{data.hh_id}}</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -430,11 +439,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
@@ -497,10 +506,10 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.37"/>
@@ -637,7 +646,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
@@ -769,7 +778,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.3"/>
   </cols>
@@ -816,11 +825,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
@@ -840,20 +849,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
+++ b/odkx/app/config/tables/hh_geo_location/forms/hh_geo_location/hh_geo_location.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -201,7 +201,10 @@
     <t xml:space="preserve">The household id is {{data.hh_id}}</t>
   </si>
   <si>
-    <t xml:space="preserve">HHID: {{data.hh_id}}</t>
+    <t xml:space="preserve">Identificação do agregado: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya: {{data.hh_id}}</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -443,7 +446,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
@@ -506,7 +509,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
@@ -646,7 +649,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
@@ -778,7 +781,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.3"/>
   </cols>
@@ -826,10 +829,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
@@ -874,7 +877,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
